--- a/CRISPR1-1 Input Parameters.xlsx
+++ b/CRISPR1-1 Input Parameters.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josef\Documents\Gene Drives\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josef\Desktop\Gene Drives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D581C769-B539-4476-8D49-B711BCD849D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944EA402-C16B-4F73-B20A-C81844EE189F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MEDEA Nonresistant Input Parame" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="CRISPR1-1 Homing Approach" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="68">
   <si>
     <t>Proportion of female offspring</t>
   </si>
@@ -60,12 +58,6 @@
     <t>Adult daily mortality rate</t>
   </si>
   <si>
-    <t>Alpha values to model</t>
-  </si>
-  <si>
-    <t>Gamma values to model</t>
-  </si>
-  <si>
     <t>0 or greater</t>
   </si>
   <si>
@@ -228,43 +220,7 @@
     <t>NHEJ delta in males (delta1)</t>
   </si>
   <si>
-    <t>Threshold gamma value</t>
-  </si>
-  <si>
-    <t>Threshold upper bound (-1 = 10E-1)</t>
-  </si>
-  <si>
-    <t>Threshold lower bound (-1 = 10E-1)</t>
-  </si>
-  <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>between 0 and 0.2</t>
-  </si>
-  <si>
-    <t>Less than upper bound</t>
-  </si>
-  <si>
-    <t>Less than 0 (integer)</t>
-  </si>
-  <si>
-    <t>Surviving</t>
-  </si>
-  <si>
-    <t>Mort Rate</t>
-  </si>
-  <si>
-    <t>mort act</t>
-  </si>
-  <si>
-    <t>fitness</t>
-  </si>
-  <si>
-    <t>mort adj</t>
-  </si>
-  <si>
-    <t>1- (1-u)*(1-fc)</t>
   </si>
   <si>
     <t>Male alpha values to model</t>
@@ -891,7 +847,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -928,7 +884,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1254,7 +1209,7 @@
   <dimension ref="B1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1272,7 +1227,7 @@
   <sheetData>
     <row r="1" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>3</v>
@@ -1283,7 +1238,7 @@
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
@@ -1303,10 +1258,10 @@
     </row>
     <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5">
         <v>5.0000000000000001E-3</v>
@@ -1323,7 +1278,7 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>4</v>
@@ -1343,10 +1298,10 @@
     </row>
     <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5">
         <v>0.02</v>
@@ -1415,7 +1370,7 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>4</v>
@@ -1432,7 +1387,7 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>4</v>
@@ -1449,7 +1404,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>4</v>
@@ -1466,7 +1421,7 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>4</v>
@@ -1477,7 +1432,7 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>4</v>
@@ -1488,7 +1443,7 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>4</v>
@@ -1521,7 +1476,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>6</v>
@@ -1532,7 +1487,7 @@
     </row>
     <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>6</v>
@@ -1544,7 +1499,7 @@
     <row r="20" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>3</v>
@@ -1553,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
@@ -1566,16 +1521,16 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" s="20">
         <v>49.5</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
@@ -1588,16 +1543,16 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23" s="20">
         <v>0</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
@@ -1610,16 +1565,16 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24" s="20">
         <v>0</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
@@ -1632,16 +1587,16 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25" s="20">
         <v>0</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -1654,16 +1609,16 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" s="20">
         <v>0</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
@@ -1676,16 +1631,16 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" s="20">
         <v>0</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
@@ -1698,16 +1653,16 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" s="20">
         <v>0</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
@@ -1720,16 +1675,16 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" s="20">
         <v>0</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -1742,16 +1697,16 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" s="20">
         <v>0</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
@@ -1764,16 +1719,16 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" s="20">
         <v>0</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
@@ -1786,16 +1741,16 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32" s="20">
         <v>0</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
@@ -1808,16 +1763,16 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33" s="20">
         <v>0</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
@@ -1830,16 +1785,16 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34" s="20">
         <v>0</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
@@ -1852,16 +1807,16 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" s="20">
         <v>0</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
@@ -1874,16 +1829,16 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" s="20">
         <v>0</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
@@ -1896,16 +1851,16 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" s="20">
         <v>0</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
@@ -1918,16 +1873,16 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38" s="20">
         <v>0</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
@@ -1940,16 +1895,16 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39" s="20">
         <v>0</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
@@ -1962,16 +1917,16 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" s="20">
         <v>1</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
@@ -1984,16 +1939,16 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41" s="20">
         <v>0</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
@@ -2006,16 +1961,16 @@
     </row>
     <row r="42" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42" s="21">
         <v>0</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
@@ -2028,16 +1983,16 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" s="20">
         <v>49.5</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
@@ -2050,16 +2005,16 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D44" s="20">
         <v>0</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
@@ -2072,16 +2027,16 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D45" s="20">
         <v>0</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -2094,16 +2049,16 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D46" s="20">
         <v>0</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
@@ -2116,16 +2071,16 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D47" s="20">
         <v>0</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
@@ -2138,16 +2093,16 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D48" s="20">
         <v>0</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
@@ -2160,16 +2115,16 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" s="20">
         <v>0</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
@@ -2182,16 +2137,16 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D50" s="20">
         <v>0</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
@@ -2204,16 +2159,16 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D51" s="20">
         <v>0</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
@@ -2226,16 +2181,16 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D52" s="20">
         <v>0</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
@@ -2248,16 +2203,16 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D53" s="20">
         <v>0</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
@@ -2270,16 +2225,16 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D54" s="20">
         <v>0</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
@@ -2292,16 +2247,16 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D55" s="20">
         <v>0</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
@@ -2314,16 +2269,16 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D56" s="20">
         <v>0</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
@@ -2336,16 +2291,16 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D57" s="20">
         <v>0</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
@@ -2358,16 +2313,16 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D58" s="20">
         <v>0</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
@@ -2380,16 +2335,16 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D59" s="20">
         <v>0</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
@@ -2402,16 +2357,16 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D60" s="20">
         <v>0</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
@@ -2424,16 +2379,16 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D61" s="20">
         <v>0</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
@@ -2446,16 +2401,16 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D62" s="20">
         <v>0</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
@@ -2468,16 +2423,16 @@
     </row>
     <row r="63" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D63" s="21">
         <v>0</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
@@ -2493,1664 +2448,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3D3082-B397-4C9D-99B4-1CC2D673AF9D}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:M61"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20:L61"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.109375" style="6"/>
-    <col min="2" max="2" width="66.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" style="6"/>
-    <col min="6" max="6" width="16.44140625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" style="6"/>
-    <col min="9" max="9" width="22.109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="1">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="20">
-        <v>49.5</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="20">
-        <v>0</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="20">
-        <v>0</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="20">
-        <v>0</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="20">
-        <v>0</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="20">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="20">
-        <v>0</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="20">
-        <v>0</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="20">
-        <v>0</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="20">
-        <v>0</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="20">
-        <v>0</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="20">
-        <v>0</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0</v>
-      </c>
-      <c r="L31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="20">
-        <v>0</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="20">
-        <v>0</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="20">
-        <v>0</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="20">
-        <v>0</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L35" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="20">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L36" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="20">
-        <v>0</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L37" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="20">
-        <v>1</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="20">
-        <v>0</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="21">
-        <v>0</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J40" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="L40" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="20">
-        <v>49.5</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="20">
-        <v>0</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0</v>
-      </c>
-      <c r="L42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="20">
-        <v>0</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="20">
-        <v>0</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="20">
-        <v>0</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L45" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="20">
-        <v>0</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="20">
-        <v>0</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="20">
-        <v>0</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B49" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="20">
-        <v>0</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="1">
-        <v>0</v>
-      </c>
-      <c r="L49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="20">
-        <v>0</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J50" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L50" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="20">
-        <v>0</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L51" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B52" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="20">
-        <v>0</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="1">
-        <v>0</v>
-      </c>
-      <c r="L52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B53" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="20">
-        <v>0</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0</v>
-      </c>
-      <c r="L53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B54" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="20">
-        <v>0</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L54" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="20">
-        <v>0</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J55" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L55" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B56" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="20">
-        <v>0</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J56" s="1">
-        <v>1</v>
-      </c>
-      <c r="L56" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B57" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="20">
-        <v>0</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="1">
-        <v>1</v>
-      </c>
-      <c r="L57" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B58" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="20">
-        <v>0</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="1">
-        <v>1</v>
-      </c>
-      <c r="L58" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B59" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="20">
-        <v>0</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="1">
-        <v>1</v>
-      </c>
-      <c r="L59" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B60" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="20">
-        <v>0</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J60" s="1">
-        <v>1</v>
-      </c>
-      <c r="L60" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="21">
-        <v>0</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J61" s="2">
-        <v>1</v>
-      </c>
-      <c r="L61" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADE28DC-7A24-43F1-9949-9D1A9DBDB95B}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:K16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="22">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.01</v>
-      </c>
-      <c r="E4">
-        <v>0.1</v>
-      </c>
-      <c r="F4">
-        <f>$C$4*(1+E4)</f>
-        <v>1.1000000000000001E-2</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <f>(1-$C$4)*B4</f>
-        <v>0.99</v>
-      </c>
-      <c r="D5">
-        <f>$B$4-B5</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="G5">
-        <f>(1-$F$4)*G4</f>
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="H5">
-        <f>1-G5</f>
-        <v>1.100000000000001E-2</v>
-      </c>
-      <c r="K5">
-        <f>1-(1-$C$4)*(1-E4)</f>
-        <v>0.10899999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ref="B6:B15" si="0">(1-$C$4)*B5</f>
-        <v>0.98009999999999997</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="D6:D15" si="1">$B$4-B6</f>
-        <v>1.9900000000000029E-2</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G15" si="2">(1-$F$4)*G5</f>
-        <v>0.97812100000000002</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ref="H6:H16" si="3">1-G6</f>
-        <v>2.1878999999999982E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>0.97029899999999991</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>2.9701000000000088E-2</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>0.96736166899999998</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>3.263833100000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>0.96059600999999994</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>3.9403990000000055E-2</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>0.95672069064099996</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>4.327930935900004E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>0.95099004989999991</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>4.9009950100000088E-2</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>0.94619676304394895</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>5.3803236956051048E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>0.94148014940099989</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>5.8519850599000112E-2</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>0.93578859865046549</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>6.4211401349534514E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>0.93206534790698992</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>6.7934652093010084E-2</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>0.92549492406531031</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>7.4505075934689691E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>0.92274469442791995</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>7.7255305572080046E-2</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>0.91531447990059189</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
-        <v>8.4685520099408107E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>0.91351724748364072</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>8.6482752516359285E-2</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>0.90524602062168535</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
-        <v>9.4753979378314646E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>0.9043820750088043</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>9.5617924991195702E-2</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>0.8952883143948468</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
-        <v>0.1047116856051532</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>0.89533825425871627</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>0.10466174574128373</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>0.88544014293650353</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="3"/>
-        <v>0.11455985706349647</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ref="B16" si="4">(1-$C$4)*B15</f>
-        <v>0.88638487171612912</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ref="D16" si="5">$B$4-B16</f>
-        <v>0.11361512828387088</v>
-      </c>
-      <c r="G16">
-        <f>(1-$F$4)*G15</f>
-        <v>0.87570030136420196</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="3"/>
-        <v>0.12429969863579804</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>